--- a/Time-Spending_Records.xlsx
+++ b/Time-Spending_Records.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/assignment3_stat_pp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pantc\Documents\assignment3_stat_pp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7D519B-8AEA-6F4F-BA35-BBEA3749E842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684CEE3D-C97C-44E6-B5DB-08A43D07CD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="82">
   <si>
     <t>date</t>
   </si>
@@ -273,13 +273,19 @@
   </si>
   <si>
     <t>เดินทางไปจังหวัดนนทบุรี</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -290,18 +296,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Angsana New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="Angsana New"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -324,22 +318,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -562,18 +546,18 @@
   </sheetPr>
   <dimension ref="A1:D220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="47.5" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44565</v>
       </c>
@@ -601,7 +585,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44565</v>
       </c>
@@ -615,7 +599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44565</v>
       </c>
@@ -629,7 +613,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44566</v>
       </c>
@@ -643,7 +627,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44566</v>
       </c>
@@ -657,7 +641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44566</v>
       </c>
@@ -671,7 +655,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44566</v>
       </c>
@@ -685,7 +669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44566</v>
       </c>
@@ -699,7 +683,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44567</v>
       </c>
@@ -713,7 +697,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44567</v>
       </c>
@@ -727,7 +711,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44567</v>
       </c>
@@ -741,7 +725,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44567</v>
       </c>
@@ -755,7 +739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44567</v>
       </c>
@@ -769,7 +753,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44568</v>
       </c>
@@ -783,7 +767,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44568</v>
       </c>
@@ -797,7 +781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44568</v>
       </c>
@@ -811,7 +795,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44569</v>
       </c>
@@ -825,7 +809,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44569</v>
       </c>
@@ -839,7 +823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44569</v>
       </c>
@@ -853,7 +837,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44570</v>
       </c>
@@ -867,7 +851,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44570</v>
       </c>
@@ -881,7 +865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44570</v>
       </c>
@@ -895,7 +879,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44571</v>
       </c>
@@ -909,7 +893,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44571</v>
       </c>
@@ -923,7 +907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44571</v>
       </c>
@@ -937,7 +921,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44572</v>
       </c>
@@ -951,7 +935,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44572</v>
       </c>
@@ -965,7 +949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44572</v>
       </c>
@@ -979,7 +963,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44573</v>
       </c>
@@ -993,7 +977,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44573</v>
       </c>
@@ -1007,7 +991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44573</v>
       </c>
@@ -1021,7 +1005,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44573</v>
       </c>
@@ -1035,7 +1019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44573</v>
       </c>
@@ -1049,7 +1033,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44574</v>
       </c>
@@ -1063,7 +1047,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44574</v>
       </c>
@@ -1077,7 +1061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44574</v>
       </c>
@@ -1091,7 +1075,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44574</v>
       </c>
@@ -1105,7 +1089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44574</v>
       </c>
@@ -1119,7 +1103,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44575</v>
       </c>
@@ -1133,7 +1117,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44575</v>
       </c>
@@ -1147,7 +1131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44575</v>
       </c>
@@ -1161,7 +1145,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44576</v>
       </c>
@@ -1175,7 +1159,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44576</v>
       </c>
@@ -1189,7 +1173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44576</v>
       </c>
@@ -1203,7 +1187,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44577</v>
       </c>
@@ -1217,7 +1201,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44577</v>
       </c>
@@ -1231,7 +1215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44577</v>
       </c>
@@ -1245,7 +1229,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44578</v>
       </c>
@@ -1259,7 +1243,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44578</v>
       </c>
@@ -1273,7 +1257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44578</v>
       </c>
@@ -1287,7 +1271,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44579</v>
       </c>
@@ -1301,7 +1285,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44579</v>
       </c>
@@ -1315,7 +1299,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44579</v>
       </c>
@@ -1329,7 +1313,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44579</v>
       </c>
@@ -1343,7 +1327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44579</v>
       </c>
@@ -1357,7 +1341,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44580</v>
       </c>
@@ -1371,7 +1355,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44580</v>
       </c>
@@ -1385,7 +1369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44580</v>
       </c>
@@ -1399,7 +1383,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44580</v>
       </c>
@@ -1413,7 +1397,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44580</v>
       </c>
@@ -1427,7 +1411,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44580</v>
       </c>
@@ -1441,7 +1425,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44581</v>
       </c>
@@ -1455,7 +1439,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44581</v>
       </c>
@@ -1469,7 +1453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44581</v>
       </c>
@@ -1483,7 +1467,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44581</v>
       </c>
@@ -1497,7 +1481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44581</v>
       </c>
@@ -1511,7 +1495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44582</v>
       </c>
@@ -1525,7 +1509,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44582</v>
       </c>
@@ -1539,7 +1523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44582</v>
       </c>
@@ -1553,7 +1537,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44583</v>
       </c>
@@ -1567,7 +1551,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44583</v>
       </c>
@@ -1581,7 +1565,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44583</v>
       </c>
@@ -1595,7 +1579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44583</v>
       </c>
@@ -1609,7 +1593,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44584</v>
       </c>
@@ -1623,7 +1607,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44584</v>
       </c>
@@ -1637,7 +1621,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44584</v>
       </c>
@@ -1651,7 +1635,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44584</v>
       </c>
@@ -1665,7 +1649,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44585</v>
       </c>
@@ -1679,7 +1663,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44585</v>
       </c>
@@ -1693,7 +1677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44585</v>
       </c>
@@ -1707,7 +1691,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>44586</v>
       </c>
@@ -1721,7 +1705,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44586</v>
       </c>
@@ -1735,7 +1719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44586</v>
       </c>
@@ -1749,7 +1733,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>44587</v>
       </c>
@@ -1763,7 +1747,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>44587</v>
       </c>
@@ -1777,7 +1761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>44587</v>
       </c>
@@ -1791,7 +1775,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>44587</v>
       </c>
@@ -1805,7 +1789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>44587</v>
       </c>
@@ -1819,7 +1803,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44588</v>
       </c>
@@ -1833,7 +1817,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44588</v>
       </c>
@@ -1847,7 +1831,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44588</v>
       </c>
@@ -1861,7 +1845,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>44588</v>
       </c>
@@ -1875,7 +1859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>44588</v>
       </c>
@@ -1889,7 +1873,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>44589</v>
       </c>
@@ -1903,7 +1887,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>44589</v>
       </c>
@@ -1917,7 +1901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>44589</v>
       </c>
@@ -1931,7 +1915,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>44590</v>
       </c>
@@ -1945,7 +1929,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>44590</v>
       </c>
@@ -1959,7 +1943,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>44590</v>
       </c>
@@ -1973,7 +1957,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>44590</v>
       </c>
@@ -1987,7 +1971,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>44591</v>
       </c>
@@ -2001,7 +1985,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>44591</v>
       </c>
@@ -2015,7 +1999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>44591</v>
       </c>
@@ -2029,7 +2013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>44592</v>
       </c>
@@ -2043,7 +2027,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>44592</v>
       </c>
@@ -2057,7 +2041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>44592</v>
       </c>
@@ -2071,7 +2055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>44592</v>
       </c>
@@ -2085,9 +2069,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>4</v>
@@ -2099,9 +2083,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>6</v>
@@ -2113,9 +2097,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>8</v>
@@ -2127,7 +2111,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>44594</v>
       </c>
@@ -2141,7 +2125,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>44594</v>
       </c>
@@ -2155,7 +2139,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>44594</v>
       </c>
@@ -2169,7 +2153,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>44594</v>
       </c>
@@ -2183,7 +2167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>44594</v>
       </c>
@@ -2197,7 +2181,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>44595</v>
       </c>
@@ -2211,7 +2195,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>44595</v>
       </c>
@@ -2225,7 +2209,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>44595</v>
       </c>
@@ -2239,7 +2223,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44595</v>
       </c>
@@ -2253,7 +2237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>44595</v>
       </c>
@@ -2267,7 +2251,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>44596</v>
       </c>
@@ -2281,7 +2265,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>44596</v>
       </c>
@@ -2295,7 +2279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>44596</v>
       </c>
@@ -2309,7 +2293,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>44597</v>
       </c>
@@ -2323,7 +2307,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>44597</v>
       </c>
@@ -2337,7 +2321,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>44597</v>
       </c>
@@ -2351,7 +2335,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>44598</v>
       </c>
@@ -2365,7 +2349,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>44598</v>
       </c>
@@ -2379,7 +2363,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44598</v>
       </c>
@@ -2393,7 +2377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>44598</v>
       </c>
@@ -2407,7 +2391,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>44599</v>
       </c>
@@ -2421,7 +2405,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>44599</v>
       </c>
@@ -2435,7 +2419,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>44599</v>
       </c>
@@ -2449,7 +2433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>44599</v>
       </c>
@@ -2463,7 +2447,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>44600</v>
       </c>
@@ -2477,7 +2461,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>44600</v>
       </c>
@@ -2491,7 +2475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>44600</v>
       </c>
@@ -2505,7 +2489,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>44601</v>
       </c>
@@ -2519,7 +2503,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>44601</v>
       </c>
@@ -2533,7 +2517,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44601</v>
       </c>
@@ -2547,7 +2531,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>44601</v>
       </c>
@@ -2561,7 +2545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>44601</v>
       </c>
@@ -2575,7 +2559,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>44602</v>
       </c>
@@ -2589,7 +2573,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>44602</v>
       </c>
@@ -2603,7 +2587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>44602</v>
       </c>
@@ -2617,7 +2601,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>44602</v>
       </c>
@@ -2631,7 +2615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>44602</v>
       </c>
@@ -2645,7 +2629,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>44603</v>
       </c>
@@ -2659,7 +2643,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>44603</v>
       </c>
@@ -2673,7 +2657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>44603</v>
       </c>
@@ -2687,7 +2671,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>44604</v>
       </c>
@@ -2701,7 +2685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>44604</v>
       </c>
@@ -2715,7 +2699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>44605</v>
       </c>
@@ -2729,7 +2713,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>44605</v>
       </c>
@@ -2743,7 +2727,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>44606</v>
       </c>
@@ -2757,7 +2741,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>44606</v>
       </c>
@@ -2771,7 +2755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>44606</v>
       </c>
@@ -2785,7 +2769,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>44607</v>
       </c>
@@ -2799,7 +2783,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>44607</v>
       </c>
@@ -2813,7 +2797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>44607</v>
       </c>
@@ -2827,7 +2811,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>44608</v>
       </c>
@@ -2841,7 +2825,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>44608</v>
       </c>
@@ -2855,7 +2839,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>44608</v>
       </c>
@@ -2869,7 +2853,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>44608</v>
       </c>
@@ -2883,7 +2867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>44609</v>
       </c>
@@ -2897,7 +2881,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>44609</v>
       </c>
@@ -2911,7 +2895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>44609</v>
       </c>
@@ -2925,7 +2909,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>44609</v>
       </c>
@@ -2939,7 +2923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>44609</v>
       </c>
@@ -2953,7 +2937,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>44610</v>
       </c>
@@ -2967,7 +2951,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>44610</v>
       </c>
@@ -2981,7 +2965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>44610</v>
       </c>
@@ -2995,7 +2979,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>44611</v>
       </c>
@@ -3009,7 +2993,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>44611</v>
       </c>
@@ -3023,7 +3007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>44612</v>
       </c>
@@ -3037,7 +3021,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>44612</v>
       </c>
@@ -3051,7 +3035,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>44612</v>
       </c>
@@ -3065,7 +3049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>44613</v>
       </c>
@@ -3079,7 +3063,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>44613</v>
       </c>
@@ -3093,7 +3077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>44613</v>
       </c>
@@ -3107,7 +3091,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>44614</v>
       </c>
@@ -3121,7 +3105,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>44614</v>
       </c>
@@ -3135,7 +3119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>44614</v>
       </c>
@@ -3149,7 +3133,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>44615</v>
       </c>
@@ -3163,7 +3147,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>44615</v>
       </c>
@@ -3177,7 +3161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>44615</v>
       </c>
@@ -3191,7 +3175,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>44615</v>
       </c>
@@ -3205,7 +3189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>44615</v>
       </c>
@@ -3219,7 +3203,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>44616</v>
       </c>
@@ -3233,7 +3217,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>44616</v>
       </c>
@@ -3247,7 +3231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>44616</v>
       </c>
@@ -3261,7 +3245,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>44616</v>
       </c>
@@ -3275,7 +3259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>44616</v>
       </c>
@@ -3289,7 +3273,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>44617</v>
       </c>
@@ -3303,7 +3287,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>44617</v>
       </c>
@@ -3317,7 +3301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>44617</v>
       </c>
@@ -3331,7 +3315,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>44618</v>
       </c>
@@ -3345,7 +3329,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>44618</v>
       </c>
@@ -3359,7 +3343,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>44619</v>
       </c>
@@ -3373,7 +3357,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>44619</v>
       </c>
@@ -3387,7 +3371,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>44619</v>
       </c>
@@ -3401,7 +3385,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>44619</v>
       </c>
@@ -3415,7 +3399,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>44620</v>
       </c>
@@ -3429,7 +3413,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>44620</v>
       </c>
@@ -3443,7 +3427,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>44620</v>
       </c>
@@ -3457,7 +3441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>44620</v>
       </c>
@@ -3471,7 +3455,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>44621</v>
       </c>
@@ -3485,7 +3469,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>44621</v>
       </c>
@@ -3499,7 +3483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>44621</v>
       </c>
@@ -3513,7 +3497,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>44622</v>
       </c>
@@ -3527,7 +3511,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>44622</v>
       </c>
@@ -3541,7 +3525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>44622</v>
       </c>
@@ -3555,7 +3539,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>44622</v>
       </c>
@@ -3569,7 +3553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>44622</v>
       </c>
@@ -3583,7 +3567,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>44623</v>
       </c>
@@ -3597,7 +3581,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>44623</v>
       </c>
@@ -3611,7 +3595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>44623</v>
       </c>
@@ -3625,7 +3609,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>44623</v>
       </c>
@@ -3639,7 +3623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>44623</v>
       </c>
@@ -3659,612 +3643,3617 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14AFAD7-70CA-0F45-ADC4-79F1FD2CC378}">
-  <dimension ref="A1:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89015879-D395-450E-9E22-3D1AF4380C49}">
+  <dimension ref="A1:E220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
-    <col min="8" max="8" width="29.1640625" customWidth="1"/>
-    <col min="9" max="9" width="36" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44565</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>270</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44565</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44565</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>240</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44566</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>180</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44566</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44566</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>270</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44566</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44566</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>240</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44567</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>180</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44567</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44567</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>180</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44567</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44567</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>240</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44568</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D15" s="1">
+        <v>420</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44568</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44568</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
+        <v>240</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44569</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>420</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44569</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44569</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>240</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44570</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
+        <v>360</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44570</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44570</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>240</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44571</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>240</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44571</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44571</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>240</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44572</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>270</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44572</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44572</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1">
+        <v>240</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>44573</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>180</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44573</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="D31" s="1">
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44573</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1">
+        <v>300</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44573</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44573</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1">
+        <v>240</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44574</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>180</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>44574</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="1">
+        <v>60</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44574</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>180</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44574</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>44574</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1">
+        <v>240</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>44575</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1">
+        <v>420</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>44575</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>44575</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>240</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>44576</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1">
+        <v>420</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44576</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44576</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="1">
+        <v>240</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>44577</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="1">
+        <v>480</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44577</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>44577</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="1">
+        <v>240</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>44578</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="1">
+        <v>480</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>44578</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1">
+        <v>30</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>44578</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="1">
+        <v>240</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>44579</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="1">
+        <v>120</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>44579</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="1">
+        <v>120</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>44579</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="1">
+        <v>360</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>44579</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1">
+        <v>30</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>44579</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="1">
+        <v>240</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1">
+        <v>120</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="1">
+        <v>60</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="1">
+        <v>180</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="1">
+        <v>240</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1">
+        <v>60</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="1">
+        <v>270</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>44581</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="1">
+        <v>165</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>44581</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="1">
+        <v>60</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>44581</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="1">
+        <v>165</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>44581</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="1">
+        <v>60</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>44581</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1">
+        <v>30</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>44582</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="1">
+        <v>420</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>44582</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1">
+        <v>30</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>44582</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="1">
+        <v>240</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>44583</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="1">
+        <v>420</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>44583</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="D72" s="1">
+        <v>135</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>44583</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="1">
+        <v>45</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>44583</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="1">
+        <v>135</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>44584</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="1">
+        <v>360</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>44584</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="1">
+        <v>135</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>44584</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1">
+        <v>45</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>44584</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="1">
+        <v>180</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>44585</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="1">
+        <v>240</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>44585</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1">
+        <v>30</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>44585</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="1">
+        <v>240</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>44586</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1">
+        <v>270</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>44586</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1">
+        <v>30</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>44586</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="1">
+        <v>240</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="1">
+        <v>180</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="1">
+        <v>60</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="1">
+        <v>270</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1">
+        <v>30</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="1">
+        <v>240</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>44588</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="1">
+        <v>180</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>44588</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="1">
+        <v>60</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>44588</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="1">
+        <v>180</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>44588</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="1">
+        <v>30</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>44588</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="1">
+        <v>240</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>44589</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="1">
+        <v>420</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>44589</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="1">
+        <v>30</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>44589</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="1">
+        <v>240</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>44590</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="1">
+        <v>420</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>44590</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" s="1">
+        <v>135</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>44590</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="1">
+        <v>45</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>44590</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="1">
+        <v>135</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>44591</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" s="1">
+        <v>450</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>44591</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" s="1">
+        <v>60</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>44591</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="1">
+        <v>45</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="1">
+        <v>240</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="1">
+        <v>45</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="1">
+        <v>30</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" s="1">
+        <v>75</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="1">
+        <v>270</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="1">
+        <v>30</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="1">
+        <v>240</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="1">
+        <v>180</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="1">
+        <v>60</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1">
+        <v>270</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="1">
+        <v>30</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="1">
+        <v>240</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="1">
+        <v>180</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="1">
+        <v>60</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="1">
+        <v>180</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="1">
+        <v>30</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="1">
+        <v>240</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="1">
+        <v>420</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="1">
+        <v>30</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="1">
+        <v>240</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="1">
+        <v>420</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="1">
+        <v>165</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="1">
+        <v>135</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="1">
+        <v>360</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D129" s="1">
+        <v>135</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="1">
+        <v>45</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="1">
+        <v>180</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D132" s="1">
+        <v>240</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D133" s="1">
+        <v>120</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="1">
+        <v>30</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="1">
+        <v>240</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="1">
+        <v>390</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="1">
+        <v>30</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="1">
+        <v>240</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="1">
+        <v>180</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140" s="1">
+        <v>60</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="1">
+        <v>270</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="1">
+        <v>30</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="1">
+        <v>240</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="1">
+        <v>180</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="1">
+        <v>60</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="1">
+        <v>180</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="1">
+        <v>30</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="1">
+        <v>240</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="1">
+        <v>420</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="1">
+        <v>30</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="1">
+        <v>240</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D152" s="1">
+        <v>60</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="1">
+        <v>30</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D154" s="1">
+        <v>60</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D155" s="1">
+        <v>90</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="1">
+        <v>240</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="1">
+        <v>30</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="1">
+        <v>240</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="1">
+        <v>270</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" s="1">
+        <v>30</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="1">
+        <v>240</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="1">
+        <v>120</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D163" s="1">
+        <v>150</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D164" s="1">
+        <v>180</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="1">
+        <v>45</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" s="1">
+        <v>180</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167" s="1">
+        <v>60</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="1">
+        <v>180</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="1">
+        <v>30</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="1">
+        <v>240</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" s="1">
+        <v>420</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" s="1">
+        <v>30</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="1">
+        <v>240</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>44611</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A2" s="5">
-        <v>44578</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A3" s="5">
-        <v>44579</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A4" s="5">
-        <v>44580</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" ht="32" x14ac:dyDescent="0.5">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="D174" s="1">
+        <v>420</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>44611</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="1">
+        <v>45</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>44612</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D176" s="1">
+        <v>240</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>44612</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D177" s="1">
+        <v>135</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>44612</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="1">
+        <v>45</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="1">
+        <v>240</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="1">
+        <v>30</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="1">
+        <v>240</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182" s="1">
+        <v>270</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="1">
+        <v>30</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="1">
+        <v>240</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185" s="1">
+        <v>180</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D186" s="1">
+        <v>60</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" s="1">
+        <v>270</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" s="1">
+        <v>30</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="1">
+        <v>240</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" s="1">
+        <v>180</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D191" s="1">
+        <v>60</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" s="1">
+        <v>180</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="1">
+        <v>30</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="1">
+        <v>240</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="1">
+        <v>240</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" s="1">
+        <v>30</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="1">
+        <v>240</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="1">
+        <v>120</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D199" s="1">
+        <v>330</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="1">
+        <v>180</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D201" s="1">
+        <v>120</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" s="1">
+        <v>45</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="1">
+        <v>150</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" s="1">
+        <v>240</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D205" s="1">
+        <v>90</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" s="1">
+        <v>30</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="1">
+        <v>240</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="2"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="2"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="2"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="2"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="2"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="2"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Time-Spending_Records.xlsx
+++ b/Time-Spending_Records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pantc\Documents\assignment3_stat_pp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/assignment3_stat_pp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684CEE3D-C97C-44E6-B5DB-08A43D07CD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B2FBA1-4F4F-EE4B-9A60-A995D59BD0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,15 +113,9 @@
     <t>10.00 - 12.00</t>
   </si>
   <si>
-    <t>เตรียมตัวพรีเซนต์ assignment 2 วิชา 01204314</t>
-  </si>
-  <si>
     <t>16.00 - 20.00</t>
   </si>
   <si>
-    <t>พรีเซนต์ assignment 2 วิชา 01204314</t>
-  </si>
-  <si>
     <t>20.00 - 21.00</t>
   </si>
   <si>
@@ -279,6 +273,12 @@
   </si>
   <si>
     <t>duration</t>
+  </si>
+  <si>
+    <t>พรีเซนต์ assignment 1 วิชา 01204314</t>
+  </si>
+  <si>
+    <t>เตรียมตัวพรีเซนต์ assignment 1 วิชา 01204314</t>
   </si>
 </sst>
 </file>
@@ -546,18 +546,18 @@
   </sheetPr>
   <dimension ref="A1:D220"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="47.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="47.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>44565</v>
       </c>
@@ -585,7 +585,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>44565</v>
       </c>
@@ -599,7 +599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>44565</v>
       </c>
@@ -613,7 +613,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>44566</v>
       </c>
@@ -627,7 +627,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>44566</v>
       </c>
@@ -641,7 +641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>44566</v>
       </c>
@@ -655,7 +655,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>44566</v>
       </c>
@@ -669,7 +669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>44566</v>
       </c>
@@ -683,7 +683,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>44567</v>
       </c>
@@ -697,7 +697,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>44567</v>
       </c>
@@ -711,7 +711,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>44567</v>
       </c>
@@ -725,7 +725,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>44567</v>
       </c>
@@ -739,7 +739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>44567</v>
       </c>
@@ -753,7 +753,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>44568</v>
       </c>
@@ -767,7 +767,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>44568</v>
       </c>
@@ -781,7 +781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>44568</v>
       </c>
@@ -795,7 +795,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>44569</v>
       </c>
@@ -809,7 +809,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>44569</v>
       </c>
@@ -823,7 +823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>44569</v>
       </c>
@@ -837,7 +837,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>44570</v>
       </c>
@@ -851,7 +851,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>44570</v>
       </c>
@@ -865,7 +865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>44570</v>
       </c>
@@ -879,7 +879,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>44571</v>
       </c>
@@ -893,7 +893,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>44571</v>
       </c>
@@ -907,7 +907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>44571</v>
       </c>
@@ -921,7 +921,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>44572</v>
       </c>
@@ -935,7 +935,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>44572</v>
       </c>
@@ -949,7 +949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>44572</v>
       </c>
@@ -963,7 +963,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>44573</v>
       </c>
@@ -977,7 +977,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>44573</v>
       </c>
@@ -991,7 +991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>44573</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>44573</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>44573</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>44574</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>44574</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>44574</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>44574</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>44574</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>44575</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>44575</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>44575</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>44576</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>44576</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44576</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>44577</v>
       </c>
@@ -1195,13 +1195,13 @@
         <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D46" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44577</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>44577</v>
       </c>
@@ -1223,13 +1223,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D48" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>44578</v>
       </c>
@@ -1237,13 +1237,13 @@
         <v>19</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D49" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>44578</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>44578</v>
       </c>
@@ -1265,13 +1265,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D51" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>44579</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>44579</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>44579</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>44579</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>44579</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>44580</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>44580</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>44580</v>
       </c>
@@ -1377,32 +1377,32 @@
         <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="D59" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>44580</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D60" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>44580</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>7</v>
@@ -1411,40 +1411,40 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>44580</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D62" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>44581</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D63" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>44581</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>23</v>
@@ -1453,35 +1453,35 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>44581</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D65" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>44581</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D66" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>44581</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>44582</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>44582</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>44582</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>44583</v>
       </c>
@@ -1551,26 +1551,26 @@
         <v>420</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>44583</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D72" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>44583</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>7</v>
@@ -1579,12 +1579,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>44583</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>14</v>
@@ -1593,7 +1593,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>44584</v>
       </c>
@@ -1607,26 +1607,26 @@
         <v>360</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>44584</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D76" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>44584</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>7</v>
@@ -1635,12 +1635,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>44584</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>14</v>
@@ -1649,7 +1649,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>44585</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>44585</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>44585</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>44586</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>44586</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>44586</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>44587</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>44587</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>44587</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>44587</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>44587</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>44588</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>44588</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>44588</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>44588</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>44588</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>44589</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>44589</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>44589</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>44590</v>
       </c>
@@ -1929,26 +1929,26 @@
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>44590</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D99" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>44590</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>7</v>
@@ -1957,12 +1957,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>44590</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>14</v>
@@ -1971,40 +1971,40 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>44591</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D102" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>44591</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D103" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>44591</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>7</v>
@@ -2013,7 +2013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>44592</v>
       </c>
@@ -2027,21 +2027,21 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>44592</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D106" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>44592</v>
       </c>
@@ -2055,21 +2055,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>44592</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D108" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>44593</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>44593</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>44593</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>44594</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>44594</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>44594</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>44594</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>44594</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>44595</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>44595</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>44595</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>44595</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>44595</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>44596</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>44596</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>44596</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>44597</v>
       </c>
@@ -2307,26 +2307,26 @@
         <v>420</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>44597</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D126" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>44597</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>14</v>
@@ -2335,7 +2335,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>44598</v>
       </c>
@@ -2349,26 +2349,26 @@
         <v>360</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>44598</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D129" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>44598</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>7</v>
@@ -2377,12 +2377,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>44598</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>14</v>
@@ -2391,40 +2391,40 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>44599</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D132" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>44599</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D133" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>44599</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>7</v>
@@ -2433,12 +2433,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>44599</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>9</v>
@@ -2447,12 +2447,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>44600</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>9</v>
@@ -2461,7 +2461,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>44600</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>44600</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>44601</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>44601</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>44601</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>44601</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>44601</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>44602</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>44602</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>44602</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>44602</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>44602</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>44603</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>44603</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>44603</v>
       </c>
@@ -2671,26 +2671,26 @@
         <v>240</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>44604</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D152" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>44604</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>7</v>
@@ -2699,35 +2699,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>44605</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D154" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>44605</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D155" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>44606</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>44606</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>44606</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>44607</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>44607</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>44607</v>
       </c>
@@ -2811,12 +2811,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>44608</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>14</v>
@@ -2825,40 +2825,40 @@
         <v>120</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>44608</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D163" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
         <v>44608</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D164" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>44608</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>7</v>
@@ -2867,7 +2867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>44609</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>44609</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>44609</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>44609</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>44609</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>44610</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>44610</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>44610</v>
       </c>
@@ -2979,26 +2979,26 @@
         <v>240</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>44611</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D174" s="1">
         <v>420</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>44611</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>7</v>
@@ -3007,40 +3007,40 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>44612</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D176" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>44612</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D177" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
         <v>44612</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>7</v>
@@ -3049,7 +3049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
         <v>44613</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
         <v>44613</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
         <v>44613</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
         <v>44614</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
         <v>44614</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
         <v>44614</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
         <v>44615</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
         <v>44615</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
         <v>44615</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
         <v>44615</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
         <v>44615</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
         <v>44616</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
         <v>44616</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
         <v>44616</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>44616</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="2">
         <v>44616</v>
       </c>
@@ -3273,12 +3273,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
         <v>44617</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>9</v>
@@ -3287,7 +3287,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="2">
         <v>44617</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="2">
         <v>44617</v>
       </c>
@@ -3315,12 +3315,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
         <v>44618</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>9</v>
@@ -3329,26 +3329,26 @@
         <v>120</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="2">
         <v>44618</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D199" s="1">
         <v>330</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
         <v>44619</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>9</v>
@@ -3357,26 +3357,26 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
         <v>44619</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D201" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="2">
         <v>44619</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>7</v>
@@ -3385,12 +3385,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="2">
         <v>44619</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>9</v>
@@ -3399,7 +3399,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="2">
         <v>44620</v>
       </c>
@@ -3413,21 +3413,21 @@
         <v>240</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
         <v>44620</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D205" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
         <v>44620</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
         <v>44620</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="2">
         <v>44621</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="2">
         <v>44621</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
         <v>44621</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="2">
         <v>44622</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
         <v>44622</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="2">
         <v>44622</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="2">
         <v>44622</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
         <v>44622</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="2">
         <v>44623</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="2">
         <v>44623</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
         <v>44623</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="2">
         <v>44623</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="2">
         <v>44623</v>
       </c>
@@ -3646,19 +3646,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89015879-D395-450E-9E22-3D1AF4380C49}">
   <dimension ref="A1:E220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3669,13 +3669,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>44565</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>44565</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>44565</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>44566</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>44566</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>44566</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>44566</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>44566</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>44567</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>44567</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>44567</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>44567</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>44567</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>44568</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>44568</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>44568</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>44569</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>44569</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>44569</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>44570</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>44570</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>44570</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>44571</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>44571</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>44571</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>44572</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>44572</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>44572</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>44573</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>44573</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>44573</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>44573</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>44573</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>44574</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>44574</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>44574</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>44574</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>44574</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>44575</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>44575</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>44575</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>44576</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>44576</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44576</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>44577</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D46" s="1">
         <v>480</v>
@@ -4440,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44577</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>44577</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D48" s="1">
         <v>240</v>
@@ -4474,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>44578</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>19</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D49" s="1">
         <v>480</v>
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>44578</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>44578</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D51" s="1">
         <v>240</v>
@@ -4525,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>44579</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>44579</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>44579</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>44579</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>44579</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>44580</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>44580</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>44580</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="D59" s="1">
         <v>180</v>
@@ -4661,15 +4661,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>44580</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D60" s="1">
         <v>240</v>
@@ -4678,12 +4678,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>44580</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>7</v>
@@ -4695,15 +4695,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>44580</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D62" s="1">
         <v>270</v>
@@ -4712,15 +4712,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>44581</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D63" s="1">
         <v>165</v>
@@ -4729,12 +4729,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>44581</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>23</v>
@@ -4746,15 +4746,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>44581</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D65" s="1">
         <v>165</v>
@@ -4763,15 +4763,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>44581</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D66" s="1">
         <v>60</v>
@@ -4780,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>44581</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>44582</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>44582</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>44582</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>44583</v>
       </c>
@@ -4865,15 +4865,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>44583</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D72" s="1">
         <v>135</v>
@@ -4882,12 +4882,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>44583</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>7</v>
@@ -4899,12 +4899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>44583</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>14</v>
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>44584</v>
       </c>
@@ -4933,15 +4933,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>44584</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D76" s="1">
         <v>135</v>
@@ -4950,12 +4950,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>44584</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>7</v>
@@ -4967,12 +4967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>44584</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>14</v>
@@ -4984,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>44585</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>44585</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>44585</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>44586</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>44586</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>44586</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>44587</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>44587</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>44587</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>44587</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>44587</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>44588</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>44588</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>44588</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>44588</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>44588</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>44589</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>44589</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>44589</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>44590</v>
       </c>
@@ -5324,15 +5324,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>44590</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D99" s="1">
         <v>135</v>
@@ -5341,12 +5341,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>44590</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>7</v>
@@ -5358,12 +5358,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>44590</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>14</v>
@@ -5375,15 +5375,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>44591</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D102" s="1">
         <v>450</v>
@@ -5392,15 +5392,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>44591</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D103" s="1">
         <v>60</v>
@@ -5409,12 +5409,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>44591</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>7</v>
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>44592</v>
       </c>
@@ -5443,15 +5443,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>44592</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D106" s="1">
         <v>45</v>
@@ -5460,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>44592</v>
       </c>
@@ -5477,15 +5477,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>44592</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D108" s="1">
         <v>75</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>44593</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>44593</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>44593</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>44594</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>44594</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>44594</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>44594</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>44594</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>44595</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>44595</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>44595</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>44595</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>44595</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>44596</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>44596</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>44596</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>44597</v>
       </c>
@@ -5783,15 +5783,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>44597</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D126" s="1">
         <v>165</v>
@@ -5800,12 +5800,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>44597</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>14</v>
@@ -5817,7 +5817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>44598</v>
       </c>
@@ -5834,15 +5834,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>44598</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D129" s="1">
         <v>135</v>
@@ -5851,12 +5851,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>44598</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>7</v>
@@ -5868,12 +5868,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>44598</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>14</v>
@@ -5885,15 +5885,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>44599</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D132" s="1">
         <v>240</v>
@@ -5902,15 +5902,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>44599</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D133" s="1">
         <v>120</v>
@@ -5919,12 +5919,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>44599</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>7</v>
@@ -5936,12 +5936,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>44599</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>9</v>
@@ -5953,12 +5953,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>44600</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>9</v>
@@ -5970,7 +5970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>44600</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>44600</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>44601</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>44601</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>44601</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>44601</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>44601</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>44602</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>44602</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>44602</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>44602</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>44602</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>44603</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>44603</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>44603</v>
       </c>
@@ -6225,15 +6225,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>44604</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D152" s="1">
         <v>60</v>
@@ -6242,12 +6242,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>44604</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>7</v>
@@ -6259,15 +6259,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>44605</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D154" s="1">
         <v>60</v>
@@ -6276,15 +6276,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>44605</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D155" s="1">
         <v>90</v>
@@ -6293,7 +6293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>44606</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>44606</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>44606</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>44607</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>44607</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>44607</v>
       </c>
@@ -6395,12 +6395,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>44608</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>14</v>
@@ -6412,15 +6412,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>44608</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D163" s="1">
         <v>150</v>
@@ -6429,15 +6429,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
         <v>44608</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D164" s="1">
         <v>180</v>
@@ -6446,12 +6446,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>44608</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>7</v>
@@ -6463,7 +6463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>44609</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>44609</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>44609</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>44609</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>44609</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>44610</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>44610</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>44610</v>
       </c>
@@ -6599,15 +6599,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>44611</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D174" s="1">
         <v>420</v>
@@ -6616,12 +6616,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>44611</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>7</v>
@@ -6633,15 +6633,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>44612</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D176" s="1">
         <v>240</v>
@@ -6650,15 +6650,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>44612</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D177" s="1">
         <v>135</v>
@@ -6667,12 +6667,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
         <v>44612</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>7</v>
@@ -6684,7 +6684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
         <v>44613</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
         <v>44613</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
         <v>44613</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
         <v>44614</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
         <v>44614</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
         <v>44614</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
         <v>44615</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
         <v>44615</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
         <v>44615</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
         <v>44615</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
         <v>44615</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
         <v>44616</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
         <v>44616</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
         <v>44616</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>44616</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" s="2">
         <v>44616</v>
       </c>
@@ -6956,12 +6956,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
         <v>44617</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>9</v>
@@ -6973,7 +6973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" s="2">
         <v>44617</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" s="2">
         <v>44617</v>
       </c>
@@ -7007,12 +7007,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
         <v>44618</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>9</v>
@@ -7024,15 +7024,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" s="2">
         <v>44618</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D199" s="1">
         <v>330</v>
@@ -7041,12 +7041,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
         <v>44619</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>9</v>
@@ -7058,15 +7058,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
         <v>44619</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D201" s="1">
         <v>120</v>
@@ -7075,12 +7075,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" s="2">
         <v>44619</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>7</v>
@@ -7092,12 +7092,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" s="2">
         <v>44619</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>9</v>
@@ -7109,7 +7109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204" s="2">
         <v>44620</v>
       </c>
@@ -7126,15 +7126,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
         <v>44620</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D205" s="1">
         <v>90</v>
@@ -7143,7 +7143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
         <v>44620</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
         <v>44620</v>
       </c>
@@ -7177,79 +7177,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" s="2"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="2"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="2"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="2"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="2"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="2"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="2"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="2"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="2"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="2"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="2"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="2"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="2"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
